--- a/new monthly report2025.xlsx
+++ b/new monthly report2025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="14605" tabRatio="600" firstSheet="0" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="21780" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="202401" sheetId="1" state="visible" r:id="rId1"/>
@@ -1480,10 +1480,13 @@
   <dimension ref="A3:AA81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="G50" sqref="G50:H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="26.625" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="2" ht="15" customHeight="1"/>
     <row r="3" ht="15" customHeight="1">
@@ -5004,7 +5007,7 @@
       <c r="A49" s="7" t="n"/>
       <c r="B49" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">9.Kurskhimvolokno </t>
+          <t>9.Kurskhimvolokno LTD</t>
         </is>
       </c>
       <c r="C49" s="27" t="n">
@@ -7144,7 +7147,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
   </cols>
@@ -12800,7 +12803,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
   </cols>
@@ -18468,13 +18471,14 @@
   </sheetPr>
   <dimension ref="A3:AD81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V34" sqref="B30:V34"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="20.875" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.85" customHeight="1"/>
@@ -24362,10 +24366,13 @@
   <dimension ref="A3:AA81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AA81"/>
+      <selection activeCell="B53" sqref="B53:C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="26.625" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="2" ht="15" customHeight="1"/>
     <row r="3" ht="15" customHeight="1">
@@ -27884,7 +27891,7 @@
       <c r="A49" s="7" t="n"/>
       <c r="B49" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">9.Kurskhimvolokno </t>
+          <t>9.Kurskhimvolokno LTD</t>
         </is>
       </c>
       <c r="C49" s="27" t="n">
@@ -30025,10 +30032,13 @@
   <dimension ref="A3:AA81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AA81"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="26.625" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="2" ht="15" customHeight="1"/>
     <row r="3" ht="15" customHeight="1">
@@ -35679,7 +35689,10 @@
       <selection activeCell="A3" sqref="A3:AA81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col width="26.625" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="2" ht="15" customHeight="1"/>
     <row r="3" ht="15" customHeight="1">
@@ -41326,13 +41339,14 @@
   </sheetPr>
   <dimension ref="A3:AA81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="26.625" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="2" ht="15" customHeight="1"/>
@@ -46992,7 +47006,7 @@
       <selection activeCell="C3" sqref="C3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
   </cols>
@@ -52636,7 +52650,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
   </cols>
@@ -58288,7 +58302,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
   </cols>
@@ -63938,7 +63952,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
   </cols>

--- a/new monthly report2025.xlsx
+++ b/new monthly report2025.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="21780" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="202401" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="202402" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="202403" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="202404" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="202405" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="202406" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="202407" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="202408" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="202409" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="202410" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="202411" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="202412" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202401" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202402" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202403" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202404" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202405" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202406" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202407" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202408" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202409" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202410" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202411" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202412" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
